--- a/biology/Médecine/CD48/CD48.xlsx
+++ b/biology/Médecine/CD48/CD48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'antigène CD48 (Cluster de Différenciation 48), aussi connu comme activateur des lymphocytes B marqueur (BLAST-1) ou molécule de signalisation de l'activation lymphocytaire 2 (SLAMF2), est une protéine qui, chez l'homme, est codée par le gène CD48[5].
-CD48 est un membre de la sous-famille des CD2 de la superfamille des immunoglobulines (IgSF) qui comprend des protéines SLAM (signaling lymphocyte activation molecules), telles que CD84, CD150, CD229 et CD244. CD48 se trouve à la surface des lymphocytes et d'autres cellules immunitaires, à la surface des cellules dendritiques et des cellules endothéliales, et participe à l'activation et la différenciation des voies dans ces mêmes cellules[5].
-CD48 a été la première protéine CD identifiée dans la transformation des lymphocytes B naïf[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'antigène CD48 (Cluster de Différenciation 48), aussi connu comme activateur des lymphocytes B marqueur (BLAST-1) ou molécule de signalisation de l'activation lymphocytaire 2 (SLAMF2), est une protéine qui, chez l'homme, est codée par le gène CD48.
+CD48 est un membre de la sous-famille des CD2 de la superfamille des immunoglobulines (IgSF) qui comprend des protéines SLAM (signaling lymphocyte activation molecules), telles que CD84, CD150, CD229 et CD244. CD48 se trouve à la surface des lymphocytes et d'autres cellules immunitaires, à la surface des cellules dendritiques et des cellules endothéliales, et participe à l'activation et la différenciation des voies dans ces mêmes cellules.
+CD48 a été la première protéine CD identifiée dans la transformation des lymphocytes B naïf,.
 </t>
         </is>
       </c>
